--- a/PL5/data/datos_altura_peso.xlsx
+++ b/PL5/data/datos_altura_peso.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Documents\GitHub\FCDLaboratorio\PL5\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\OneDrive\Documentos\GitHub\FCDLaboratorio\PL5\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{728D2418-B485-4FC9-BEE0-2099E858C8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0096DAF4-7323-49FF-B8BE-D53A33A9E56A}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{728D2418-B485-4FC9-BEE0-2099E858C8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B5038DF8-365C-4550-A651-2BB4D50233DF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{83CFA491-5D7D-4DA6-BB33-801B9F5549FC}"/>
+    <workbookView xWindow="5295" yWindow="1365" windowWidth="19815" windowHeight="11385" xr2:uid="{83CFA491-5D7D-4DA6-BB33-801B9F5549FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -393,12 +393,12 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,65 +406,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.81</v>
+        <v>181</v>
       </c>
       <c r="B2">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.79</v>
+        <v>179</v>
       </c>
       <c r="B3">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.82</v>
+        <v>182</v>
       </c>
       <c r="B4">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.77</v>
+        <v>177</v>
       </c>
       <c r="B5">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.75</v>
+        <v>175</v>
       </c>
       <c r="B6">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.8</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2.15</v>
+        <v>215</v>
       </c>
       <c r="B8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.56</v>
+        <v>156</v>
       </c>
       <c r="B9">
         <v>50</v>
